--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1631.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1631.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.088280478795782</v>
+        <v>0.9655929803848267</v>
       </c>
       <c r="B1">
-        <v>2.860715228421485</v>
+        <v>3.257440328598022</v>
       </c>
       <c r="C1">
-        <v>3.9548294069724</v>
+        <v>4.084120273590088</v>
       </c>
       <c r="D1">
-        <v>2.379919578853862</v>
+        <v>3.091893672943115</v>
       </c>
       <c r="E1">
-        <v>1.135225012863304</v>
+        <v>1.340919375419617</v>
       </c>
     </row>
   </sheetData>
